--- a/DesignerConfigs/Datas/error/错误码.xlsx
+++ b/DesignerConfigs/Datas/error/错误码.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\X6GameP4_pingye_refactor\X6Game\DesignerConfigs\error\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\error\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6533F8-9AA0-4AC0-BC30-0180E5EB7604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1"/>
+    <workbookView xWindow="105" yWindow="90" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="desc" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="113">
   <si>
     <t>##</t>
   </si>
@@ -155,30 +156,6 @@
   </si>
   <si>
     <t>GENDER_NOT_MATCH</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ull</t>
-    </r>
   </si>
   <si>
     <t>LEVEL_TOO_LOW</t>
@@ -398,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -750,11 +727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -958,19 +935,17 @@
       <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C28" s="3"/>
       <c r="D28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
         <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -978,10 +953,10 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
         <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -989,10 +964,10 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
         <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>51</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -1000,10 +975,10 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
         <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -1011,54 +986,46 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
         <v>58</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -1066,10 +1033,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
         <v>60</v>
-      </c>
-      <c r="C38" t="s">
-        <v>61</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -1077,10 +1044,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
         <v>62</v>
-      </c>
-      <c r="C39" t="s">
-        <v>63</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -1088,10 +1055,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
         <v>64</v>
-      </c>
-      <c r="C40" t="s">
-        <v>65</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -1099,10 +1066,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
         <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>67</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -1110,10 +1077,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
         <v>68</v>
-      </c>
-      <c r="C42" t="s">
-        <v>69</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -1121,10 +1088,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
         <v>70</v>
-      </c>
-      <c r="C43" t="s">
-        <v>71</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -1133,10 +1100,10 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -1144,10 +1111,10 @@
     </row>
     <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>10</v>
@@ -1155,10 +1122,10 @@
     </row>
     <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>10</v>
@@ -1166,10 +1133,10 @@
     </row>
     <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>10</v>
@@ -1177,10 +1144,10 @@
     </row>
     <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>10</v>
@@ -1188,10 +1155,10 @@
     </row>
     <row r="49" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>10</v>
@@ -1199,10 +1166,10 @@
     </row>
     <row r="50" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>10</v>
@@ -1210,10 +1177,10 @@
     </row>
     <row r="51" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>10</v>
@@ -1221,10 +1188,10 @@
     </row>
     <row r="52" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>10</v>
@@ -1232,10 +1199,10 @@
     </row>
     <row r="53" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>10</v>
@@ -1247,16 +1214,16 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
         <v>92</v>
-      </c>
-      <c r="C55" t="s">
-        <v>93</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F55" t="s">
         <v>15</v>
@@ -1264,16 +1231,16 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
@@ -1281,16 +1248,16 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F57" t="s">
         <v>15</v>
@@ -1298,16 +1265,16 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
@@ -1315,16 +1282,16 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
@@ -1332,10 +1299,10 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -1343,10 +1310,10 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
@@ -1354,10 +1321,10 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -1365,10 +1332,10 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
@@ -1376,10 +1343,10 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
@@ -1400,11 +1367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1422,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1561,210 +1528,210 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/error/错误码.xlsx
+++ b/DesignerConfigs/Datas/error/错误码.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\error\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6533F8-9AA0-4AC0-BC30-0180E5EB7604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F15561-F36F-4BCD-8EA9-8651725B8426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="90" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30750" yWindow="1950" windowWidth="25335" windowHeight="12915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="desc" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="113">
-  <si>
-    <t>##</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="112">
   <si>
     <t>code</t>
   </si>
@@ -33,9 +30,6 @@
   </si>
   <si>
     <t>style</t>
-  </si>
-  <si>
-    <t>是否导出</t>
   </si>
   <si>
     <t>错误码</t>
@@ -369,6 +363,23 @@
   </si>
   <si>
     <t>设计图纸对应的部件均已完成学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,8 +410,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +438,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -429,12 +453,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,9 +480,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,94 +773,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
         <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -840,7 +880,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -851,7 +891,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -862,7 +902,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -873,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -884,60 +924,60 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
+      <c r="D26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>42</v>
       </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="3"/>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -948,7 +988,7 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
@@ -959,7 +999,7 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
@@ -970,65 +1010,65 @@
         <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
+      <c r="C32" s="3"/>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="3"/>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C37" t="s">
         <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1039,18 +1079,18 @@
         <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1061,7 +1101,7 @@
         <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1072,7 +1112,7 @@
         <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,30 +1123,30 @@
         <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
       <c r="B43" t="s">
         <v>69</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D44" t="s">
-        <v>10</v>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1117,7 +1157,7 @@
         <v>74</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1128,7 +1168,7 @@
         <v>76</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1139,7 +1179,7 @@
         <v>78</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1150,7 +1190,7 @@
         <v>80</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1161,7 +1201,7 @@
         <v>82</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1172,7 +1212,7 @@
         <v>84</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1183,7 +1223,7 @@
         <v>86</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1194,73 +1234,79 @@
         <v>88</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
         <v>91</v>
       </c>
-      <c r="C55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>13</v>
       </c>
-      <c r="E55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" t="s">
         <v>13</v>
       </c>
-      <c r="E56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F56" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" t="s">
         <v>13</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -1271,94 +1317,77 @@
         <v>99</v>
       </c>
       <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" t="s">
         <v>13</v>
       </c>
-      <c r="E58" t="s">
-        <v>93</v>
-      </c>
-      <c r="F58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="1" t="s">
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" t="s">
-        <v>15</v>
+      <c r="C60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1368,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1380,62 +1409,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1478,35 +1513,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1520,10 +1555,10 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
@@ -1560,41 +1595,41 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1607,10 +1642,10 @@
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1647,19 +1682,19 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" t="s">
-        <v>71</v>
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>91</v>
+      <c r="B45" t="s">
+        <v>92</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
@@ -1674,12 +1709,12 @@
       <c r="B47" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C48" t="s">
@@ -1688,55 +1723,47 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
